--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.caetano\OneDrive\Documentos\UiPath\BodyLaser\SREF_prj_BodyLaser_03_Extracao_Tabelas\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Robos\prj_SVR_Confirmar_Agenda\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA838C7-13AA-4C90-9CDC-3F03DF2AB40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E5F27C-748E-4DEE-9772-D305C9FD6DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,12 +160,6 @@
     <t>LoginCredential</t>
   </si>
   <si>
-    <t>PagoLivreURL</t>
-  </si>
-  <si>
-    <t>https://novoportal.pagolivre.com.br/</t>
-  </si>
-  <si>
     <t>extractionFolder</t>
   </si>
   <si>
@@ -206,6 +200,12 @@
   </si>
   <si>
     <t>C:\Users\marcos.caetano\AppData\Local\authy\app-2.1.0\authy desktop.exe</t>
+  </si>
+  <si>
+    <t>SmartURL</t>
+  </si>
+  <si>
+    <t>https://smart.orthopride.com.br/Usuario/Login?ReturnUrl=%2f</t>
   </si>
 </sst>
 </file>
@@ -624,13 +624,13 @@
   <dimension ref="A1:Z353627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="65.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.44140625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -687,35 +687,35 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -726,26 +726,26 @@
         <v>17455205708</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="9">
         <v>150195</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="12"/>
     </row>
@@ -1743,10 +1743,10 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="353627" spans="1:2" ht="15" hidden="1" customHeight="1">
       <c r="A353627" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B353627" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Robos\prj_SVR_Confirmar_Agenda\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E5F27C-748E-4DEE-9772-D305C9FD6DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7FB780-0D3E-4860-8D52-A67FDB8BD2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>https://smart.orthopride.com.br/Usuario/Login?ReturnUrl=%2f</t>
+  </si>
+  <si>
+    <t>C:\Users\marcos.caetano\Downloads\</t>
+  </si>
+  <si>
+    <t>DownloadPath</t>
   </si>
 </sst>
 </file>
@@ -624,7 +630,7 @@
   <dimension ref="A1:Z353627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -750,6 +756,12 @@
       <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
